--- a/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A19DB1-3CEF-4E9C-9AAA-3CA25459B186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{059FA53C-97AE-4481-8C8A-C3C107EF3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85432550-E33F-4F2F-B387-8F920FB24350}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B6F2643-2EEE-47DD-B6E8-A799ABA6C8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB49148D-84BF-4840-9CC5-8325EB8AF4D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8492BF0C-84DB-4C4A-B42A-565A470018C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{059FA53C-97AE-4481-8C8A-C3C107EF3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518EA847-44EF-48CB-95BD-A9978C7F503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B6F2643-2EEE-47DD-B6E8-A799ABA6C8BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7EFC259-A23A-4DFE-8082-D88790E526C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,05%</t>
+    <t>0,03%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -92,10 +92,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,35%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,10 +101,10 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -116,16 +113,16 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -134,448 +131,466 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>0,83%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
+    <t>4,63%</t>
+  </si>
+  <si>
     <t>6,4%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8492BF0C-84DB-4C4A-B42A-565A470018C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1AC289-2F28-4C63-8528-AB2025566DE9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -1165,13 +1180,13 @@
         <v>11034</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1180,13 +1195,13 @@
         <v>5851</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -1195,19 +1210,19 @@
         <v>16885</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>45</v>
@@ -1216,13 +1231,13 @@
         <v>37266</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>77</v>
@@ -1231,13 +1246,13 @@
         <v>51965</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>122</v>
@@ -1246,19 +1261,19 @@
         <v>89231</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>104</v>
@@ -1267,13 +1282,13 @@
         <v>88492</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>219</v>
@@ -1282,13 +1297,13 @@
         <v>135230</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>323</v>
@@ -1297,19 +1312,19 @@
         <v>223722</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>516</v>
@@ -1318,13 +1333,13 @@
         <v>392340</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1102</v>
@@ -1333,13 +1348,13 @@
         <v>628151</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>1618</v>
@@ -1348,13 +1363,13 @@
         <v>1020491</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,13 +1384,13 @@
         <v>529132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1409</v>
@@ -1384,13 +1399,13 @@
         <v>822814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2086</v>
@@ -1399,18 +1414,18 @@
         <v>1351946</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1422,13 +1437,13 @@
         <v>5848</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1437,13 +1452,13 @@
         <v>6858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1452,19 +1467,19 @@
         <v>12706</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>21</v>
@@ -1473,13 +1488,13 @@
         <v>19052</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -1488,13 +1503,13 @@
         <v>13467</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -1503,19 +1518,19 @@
         <v>32519</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>107</v>
@@ -1524,13 +1539,13 @@
         <v>123688</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -1539,13 +1554,13 @@
         <v>78071</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
@@ -1554,19 +1569,19 @@
         <v>201759</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>497</v>
@@ -1575,13 +1590,13 @@
         <v>522719</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>728</v>
@@ -1590,13 +1605,13 @@
         <v>492621</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>1225</v>
@@ -1605,19 +1620,19 @@
         <v>1015340</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1351</v>
@@ -1626,13 +1641,13 @@
         <v>1476369</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>2058</v>
@@ -1641,13 +1656,13 @@
         <v>1650796</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>3409</v>
@@ -1656,13 +1671,13 @@
         <v>3127164</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1692,13 @@
         <v>2147676</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2910</v>
@@ -1692,13 +1707,13 @@
         <v>2241812</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4891</v>
@@ -1707,18 +1722,18 @@
         <v>4389488</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1730,10 +1745,10 @@
         <v>4450</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -1760,19 +1775,19 @@
         <v>7015</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -1781,13 +1796,13 @@
         <v>5625</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1796,13 +1811,13 @@
         <v>3820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -1811,19 +1826,19 @@
         <v>9445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -1832,13 +1847,13 @@
         <v>21729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -1847,13 +1862,13 @@
         <v>24140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -1862,19 +1877,19 @@
         <v>45869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>166</v>
@@ -1883,13 +1898,13 @@
         <v>163249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -1898,13 +1913,13 @@
         <v>133953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>382</v>
@@ -1913,19 +1928,19 @@
         <v>297201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>481</v>
@@ -1934,13 +1949,13 @@
         <v>477986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>748</v>
@@ -1949,13 +1964,13 @@
         <v>547541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1229</v>
@@ -1964,13 +1979,13 @@
         <v>1025527</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +2000,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1001</v>
@@ -2000,13 +2015,13 @@
         <v>712018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1682</v>
@@ -2015,13 +2030,13 @@
         <v>1385057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2053,13 @@
         <v>10298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2053,13 +2068,13 @@
         <v>11040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2068,19 +2083,19 @@
         <v>21338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>40</v>
@@ -2089,13 +2104,13 @@
         <v>35711</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -2104,13 +2119,13 @@
         <v>23138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -2119,19 +2134,19 @@
         <v>58849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>175</v>
@@ -2140,13 +2155,13 @@
         <v>182683</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
@@ -2155,13 +2170,13 @@
         <v>154176</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>378</v>
@@ -2170,19 +2185,19 @@
         <v>336859</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>767</v>
@@ -2191,13 +2206,13 @@
         <v>774460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>1163</v>
@@ -2206,13 +2221,13 @@
         <v>761803</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>1930</v>
@@ -2221,19 +2236,19 @@
         <v>1536263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2348</v>
@@ -2242,13 +2257,13 @@
         <v>2346695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>3908</v>
@@ -2257,13 +2272,13 @@
         <v>2826487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>6256</v>
@@ -2272,13 +2287,13 @@
         <v>5173181</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2308,13 @@
         <v>3349847</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5320</v>
@@ -2308,13 +2323,13 @@
         <v>3776644</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8659</v>
@@ -2323,18 +2338,18 @@
         <v>7126490</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518EA847-44EF-48CB-95BD-A9978C7F503D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B358050D-1068-4B37-BD27-41BE93C4B7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7EFC259-A23A-4DFE-8082-D88790E526C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2377221C-8547-4577-B39B-96C204C274FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -83,16 +83,19 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -101,400 +104,382 @@
     <t>2,09%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -503,94 +488,94 @@
     <t>0,42%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
     <t>6,4%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1005,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1AC289-2F28-4C63-8528-AB2025566DE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705D1832-5941-4A7E-8A66-350FEFD754C8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1162,16 +1147,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>12</v>
@@ -1180,13 +1165,13 @@
         <v>11034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1195,13 +1180,13 @@
         <v>5851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -1210,19 +1195,19 @@
         <v>16885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>45</v>
@@ -1231,13 +1216,13 @@
         <v>37266</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>77</v>
@@ -1246,13 +1231,13 @@
         <v>51965</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>122</v>
@@ -1261,19 +1246,19 @@
         <v>89231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>104</v>
@@ -1282,13 +1267,13 @@
         <v>88492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>219</v>
@@ -1297,13 +1282,13 @@
         <v>135230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>323</v>
@@ -1312,19 +1297,19 @@
         <v>223722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>516</v>
@@ -1333,13 +1318,13 @@
         <v>392340</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1102</v>
@@ -1348,13 +1333,13 @@
         <v>628151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>1618</v>
@@ -1363,13 +1348,13 @@
         <v>1020491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,13 +1369,13 @@
         <v>529132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1409</v>
@@ -1399,13 +1384,13 @@
         <v>822814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2086</v>
@@ -1414,18 +1399,18 @@
         <v>1351946</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1437,13 +1422,13 @@
         <v>5848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1452,13 +1437,13 @@
         <v>6858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1467,19 +1452,19 @@
         <v>12706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>21</v>
@@ -1488,13 +1473,13 @@
         <v>19052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -1503,13 +1488,13 @@
         <v>13467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -1518,19 +1503,19 @@
         <v>32519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>107</v>
@@ -1539,13 +1524,13 @@
         <v>123688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -1554,13 +1539,13 @@
         <v>78071</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
@@ -1569,19 +1554,19 @@
         <v>201759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>497</v>
@@ -1590,13 +1575,13 @@
         <v>522719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>728</v>
@@ -1605,13 +1590,13 @@
         <v>492621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>1225</v>
@@ -1620,19 +1605,19 @@
         <v>1015340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1351</v>
@@ -1641,13 +1626,13 @@
         <v>1476369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>2058</v>
@@ -1656,13 +1641,13 @@
         <v>1650796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>3409</v>
@@ -1671,13 +1656,13 @@
         <v>3127164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,13 +1677,13 @@
         <v>2147676</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2910</v>
@@ -1707,13 +1692,13 @@
         <v>2241812</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4891</v>
@@ -1722,18 +1707,18 @@
         <v>4389488</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1745,10 +1730,10 @@
         <v>4450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -1775,19 +1760,19 @@
         <v>7015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -1796,13 +1781,13 @@
         <v>5625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1811,13 +1796,13 @@
         <v>3820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -1826,19 +1811,19 @@
         <v>9445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>23</v>
@@ -1847,13 +1832,13 @@
         <v>21729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -1862,13 +1847,13 @@
         <v>24140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -1877,19 +1862,19 @@
         <v>45869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>166</v>
@@ -1898,13 +1883,13 @@
         <v>163249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -1913,13 +1898,13 @@
         <v>133953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>382</v>
@@ -1928,19 +1913,19 @@
         <v>297201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>481</v>
@@ -1949,13 +1934,13 @@
         <v>477986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>748</v>
@@ -1964,13 +1949,13 @@
         <v>547541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1229</v>
@@ -1979,13 +1964,13 @@
         <v>1025527</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +1985,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1001</v>
@@ -2015,13 +2000,13 @@
         <v>712018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1682</v>
@@ -2030,13 +2015,13 @@
         <v>1385057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2038,13 @@
         <v>10298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2068,13 +2053,13 @@
         <v>11040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2083,19 +2068,19 @@
         <v>21338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>40</v>
@@ -2104,13 +2089,13 @@
         <v>35711</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -2119,13 +2104,13 @@
         <v>23138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -2134,19 +2119,19 @@
         <v>58849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>175</v>
@@ -2155,13 +2140,13 @@
         <v>182683</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
@@ -2170,13 +2155,13 @@
         <v>154176</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>378</v>
@@ -2185,19 +2170,19 @@
         <v>336859</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>767</v>
@@ -2206,13 +2191,13 @@
         <v>774460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1163</v>
@@ -2221,13 +2206,13 @@
         <v>761803</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>1930</v>
@@ -2236,19 +2221,19 @@
         <v>1536263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>2348</v>
@@ -2257,13 +2242,13 @@
         <v>2346695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>3908</v>
@@ -2272,13 +2257,13 @@
         <v>2826487</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>6256</v>
@@ -2287,13 +2272,13 @@
         <v>5173181</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2293,13 @@
         <v>3349847</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5320</v>
@@ -2323,13 +2308,13 @@
         <v>3776644</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8659</v>
@@ -2338,18 +2323,18 @@
         <v>7126490</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B358050D-1068-4B37-BD27-41BE93C4B7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0368A03-D6F2-4039-A975-AB599375E2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2377221C-8547-4577-B39B-96C204C274FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5F521427-848E-4C76-BEB7-26A8F2FD09F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -101,481 +101,466 @@
     <t>Bastante en desacuerdo</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705D1832-5941-4A7E-8A66-350FEFD754C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663E3C50-553C-4EC2-B782-DFA10DC1B676}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1126,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1618</v>
+        <v>1483</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1618</v>
+        <v>1483</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>11034</v>
+        <v>10067</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>5851</v>
+        <v>5192</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>16885</v>
+        <v>15259</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1198,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>37266</v>
+        <v>34991</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1228,7 +1213,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>51965</v>
+        <v>45682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1243,7 +1228,7 @@
         <v>122</v>
       </c>
       <c r="N6" s="7">
-        <v>89231</v>
+        <v>80673</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1264,7 +1249,7 @@
         <v>104</v>
       </c>
       <c r="D7" s="7">
-        <v>88492</v>
+        <v>80833</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1279,7 +1264,7 @@
         <v>219</v>
       </c>
       <c r="I7" s="7">
-        <v>135230</v>
+        <v>119566</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1294,67 +1279,67 @@
         <v>323</v>
       </c>
       <c r="N7" s="7">
-        <v>223722</v>
+        <v>200399</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>516</v>
       </c>
       <c r="D8" s="7">
-        <v>392340</v>
+        <v>377049</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>1102</v>
       </c>
       <c r="I8" s="7">
-        <v>628151</v>
+        <v>571841</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>1618</v>
       </c>
       <c r="N8" s="7">
-        <v>1020491</v>
+        <v>948889</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,51 +1351,51 @@
         <v>677</v>
       </c>
       <c r="D9" s="7">
-        <v>529132</v>
+        <v>502939</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1409</v>
       </c>
       <c r="I9" s="7">
-        <v>822814</v>
+        <v>743764</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2086</v>
       </c>
       <c r="N9" s="7">
-        <v>1351946</v>
+        <v>1246702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1419,25 +1404,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5848</v>
+        <v>5840</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6858</v>
+        <v>6415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>17</v>
@@ -1449,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>12706</v>
+        <v>12255</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1470,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>19052</v>
+        <v>18278</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1485,31 +1470,31 @@
         <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>13467</v>
+        <v>12383</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>32519</v>
+        <v>30660</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,46 +1506,46 @@
         <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>123688</v>
+        <v>115871</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
       </c>
       <c r="I12" s="7">
-        <v>78071</v>
+        <v>71178</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
       </c>
       <c r="N12" s="7">
-        <v>201759</v>
+        <v>187049</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,97 +1557,97 @@
         <v>497</v>
       </c>
       <c r="D13" s="7">
-        <v>522719</v>
+        <v>494254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>728</v>
       </c>
       <c r="I13" s="7">
-        <v>492621</v>
+        <v>442401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>1225</v>
       </c>
       <c r="N13" s="7">
-        <v>1015340</v>
+        <v>936655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1351</v>
       </c>
       <c r="D14" s="7">
-        <v>1476369</v>
+        <v>1642427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>2058</v>
       </c>
       <c r="I14" s="7">
-        <v>1650796</v>
+        <v>1698330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>3409</v>
       </c>
       <c r="N14" s="7">
-        <v>3127164</v>
+        <v>3340757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,51 +1659,51 @@
         <v>1981</v>
       </c>
       <c r="D15" s="7">
-        <v>2147676</v>
+        <v>2276670</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2910</v>
       </c>
       <c r="I15" s="7">
-        <v>2241812</v>
+        <v>2230707</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4891</v>
       </c>
       <c r="N15" s="7">
-        <v>4389488</v>
+        <v>4507377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1727,46 +1712,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>4450</v>
+        <v>4562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2565</v>
+        <v>2357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>7015</v>
+        <v>6919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,46 +1763,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>5625</v>
+        <v>5144</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3820</v>
+        <v>3476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>9445</v>
+        <v>8620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,46 +1814,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>21729</v>
+        <v>20850</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>24140</v>
+        <v>22591</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>45869</v>
+        <v>43441</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,97 +1865,97 @@
         <v>166</v>
       </c>
       <c r="D19" s="7">
-        <v>163249</v>
+        <v>152145</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
       </c>
       <c r="I19" s="7">
-        <v>133953</v>
+        <v>121972</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>382</v>
       </c>
       <c r="N19" s="7">
-        <v>297201</v>
+        <v>274117</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>481</v>
       </c>
       <c r="D20" s="7">
-        <v>477986</v>
+        <v>463922</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>748</v>
       </c>
       <c r="I20" s="7">
-        <v>547541</v>
+        <v>508278</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1229</v>
       </c>
       <c r="N20" s="7">
-        <v>1025527</v>
+        <v>972200</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,46 +1967,46 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>712018</v>
+        <v>658674</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1682</v>
       </c>
       <c r="N21" s="7">
-        <v>1385057</v>
+        <v>1305297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,46 +2020,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>10298</v>
+        <v>10402</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>11040</v>
+        <v>10255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>21338</v>
+        <v>20657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,46 +2071,46 @@
         <v>40</v>
       </c>
       <c r="D23" s="7">
-        <v>35711</v>
+        <v>33489</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>23138</v>
+        <v>21051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
       </c>
       <c r="N23" s="7">
-        <v>58849</v>
+        <v>54540</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,46 +2122,46 @@
         <v>175</v>
       </c>
       <c r="D24" s="7">
-        <v>182683</v>
+        <v>171711</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>203</v>
       </c>
       <c r="I24" s="7">
-        <v>154176</v>
+        <v>139451</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>378</v>
       </c>
       <c r="N24" s="7">
-        <v>336859</v>
+        <v>311163</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,97 +2173,97 @@
         <v>767</v>
       </c>
       <c r="D25" s="7">
-        <v>774460</v>
+        <v>727232</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>1163</v>
       </c>
       <c r="I25" s="7">
-        <v>761803</v>
+        <v>683939</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>1930</v>
       </c>
       <c r="N25" s="7">
-        <v>1536263</v>
+        <v>1411171</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>2348</v>
       </c>
       <c r="D26" s="7">
-        <v>2346695</v>
+        <v>2483398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>3908</v>
       </c>
       <c r="I26" s="7">
-        <v>2826487</v>
+        <v>2778449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>6256</v>
       </c>
       <c r="N26" s="7">
-        <v>5173181</v>
+        <v>5261847</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,51 +2275,51 @@
         <v>3339</v>
       </c>
       <c r="D27" s="7">
-        <v>3349847</v>
+        <v>3426232</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5320</v>
       </c>
       <c r="I27" s="7">
-        <v>3776644</v>
+        <v>3633145</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8659</v>
       </c>
       <c r="N27" s="7">
-        <v>7126490</v>
+        <v>7059377</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
